--- a/lme_results/ug_T1/ug_f0.xlsx
+++ b/lme_results/ug_T1/ug_f0.xlsx
@@ -392,16 +392,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>5.22495328429515</v>
+        <v>7.83909294746395</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159251011006649</v>
+        <v>0.298367494084595</v>
       </c>
       <c r="D2" t="n">
-        <v>32.8095454544838</v>
+        <v>26.2732807791768</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000360658322296309</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000767463425780998</v>
       </c>
     </row>
     <row r="3">
@@ -409,16 +409,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.136826185735097</v>
+        <v>-0.24309936756535</v>
       </c>
       <c r="C3" t="n">
-        <v>0.322057741853933</v>
+        <v>0.604399351405724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.424849857505221</v>
+        <v>-0.402216460027538</v>
       </c>
       <c r="E3" t="n">
-        <v>0.671527807207445</v>
+        <v>0.687981653601289</v>
       </c>
     </row>
     <row r="4">
@@ -426,16 +426,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.675736739062565</v>
+        <v>-0.166305356584642</v>
       </c>
       <c r="C4" t="n">
-        <v>0.318655205924889</v>
+        <v>0.596755938664077</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.12058904577208</v>
+        <v>-0.278682365452349</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0355276147320675</v>
+        <v>0.780794893625549</v>
       </c>
     </row>
     <row r="5">
@@ -443,16 +443,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.492867624330422</v>
+        <v>-0.05256878650431</v>
       </c>
       <c r="C5" t="n">
-        <v>0.645414469755366</v>
+        <v>1.20646742814453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.763645141884153</v>
+        <v>-0.0435724871455151</v>
       </c>
       <c r="E5" t="n">
-        <v>0.44622478703867</v>
+        <v>0.965291426888526</v>
       </c>
     </row>
   </sheetData>
